--- a/策划案/镇魂街/活动.xlsx
+++ b/策划案/镇魂街/活动.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="588" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="588" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
     <sheet name="7日活动" sheetId="96" r:id="rId2"/>
     <sheet name="卡牌投放" sheetId="98" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="99" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="卡牌类型名" localSheetId="2">#REF!</definedName>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="350">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1411,6 +1412,27 @@
   </si>
   <si>
     <t>夏侯惇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯渊</t>
+  </si>
+  <si>
+    <t>飞廉</t>
+  </si>
+  <si>
+    <t>柠檬精</t>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2082,6 +2104,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2126,21 +2163,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="center" vertical="center"/>
@@ -2500,12 +2522,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2514,10 +2536,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="42" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2528,26 +2550,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -2556,10 +2578,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -2568,151 +2590,147 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="46"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -2725,12 +2743,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -3874,8 +3896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13:Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6258,4 +6280,273 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>346</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/策划案/镇魂街/活动.xlsx
+++ b/策划案/镇魂街/活动.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="588" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="588" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="351">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1433,6 +1433,10 @@
   </si>
   <si>
     <t>颜色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片价值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2017,7 +2021,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2104,20 +2108,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2163,6 +2155,21 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="center" vertical="center"/>
@@ -2522,12 +2529,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2536,10 +2543,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="38" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2550,26 +2557,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="43"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -2578,10 +2585,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -2590,147 +2597,151 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="31"/>
+      <c r="E8" s="47"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -2743,16 +2754,12 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -2793,12 +2800,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
@@ -2959,12 +2966,12 @@
       <c r="D17" s="24"/>
     </row>
     <row r="20" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
@@ -3110,12 +3117,12 @@
       <c r="D34" s="24"/>
     </row>
     <row r="37" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
@@ -3250,12 +3257,12 @@
       <c r="D49" s="29"/>
     </row>
     <row r="52" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="50" t="s">
+      <c r="A52" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
@@ -3380,12 +3387,12 @@
       <c r="D63" s="24"/>
     </row>
     <row r="66" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="50" t="s">
+      <c r="A66" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="B66" s="50"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
     </row>
     <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="25" t="s">
@@ -3510,12 +3517,12 @@
       <c r="D78" s="24"/>
     </row>
     <row r="81" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="50" t="s">
+      <c r="A81" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="B81" s="50"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
     </row>
     <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="25" t="s">
@@ -3648,12 +3655,12 @@
       <c r="D93" s="26"/>
     </row>
     <row r="96" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A96" s="50" t="s">
+      <c r="A96" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="B96" s="50"/>
-      <c r="C96" s="50"/>
-      <c r="D96" s="50"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
     </row>
     <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="25" t="s">
@@ -3774,12 +3781,12 @@
       <c r="D107" s="24"/>
     </row>
     <row r="111" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A111" s="50" t="s">
+      <c r="A111" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B111" s="50"/>
-      <c r="C111" s="50"/>
-      <c r="D111" s="50"/>
+      <c r="B111" s="51"/>
+      <c r="C111" s="51"/>
+      <c r="D111" s="51"/>
     </row>
     <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="25" t="s">
@@ -3894,70 +3901,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V117"/>
+  <dimension ref="A1:W117"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13:Y34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="22" max="22" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
+    <col min="23" max="23" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="18"/>
-      <c r="G2">
+      <c r="G2" s="18"/>
+      <c r="H2">
         <v>1</v>
-      </c>
-      <c r="H2">
-        <f>G2*1.15</f>
-        <v>1.1499999999999999</v>
       </c>
       <c r="I2">
         <f>H2*1.15</f>
-        <v>1.3224999999999998</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J2">
         <f>I2*1.15</f>
+        <v>1.3224999999999998</v>
+      </c>
+      <c r="K2">
+        <f>J2*1.15</f>
         <v>1.5208749999999995</v>
-      </c>
-      <c r="K2">
-        <f>J2*1.105</f>
-        <v>1.6805668749999993</v>
       </c>
       <c r="L2">
         <f>K2*1.105</f>
-        <v>1.8570263968749992</v>
+        <v>1.6805668749999993</v>
       </c>
       <c r="M2">
         <f>L2*1.105</f>
-        <v>2.052014168546874</v>
+        <v>1.8570263968749992</v>
       </c>
       <c r="N2">
         <f>M2*1.105</f>
+        <v>2.052014168546874</v>
+      </c>
+      <c r="O2">
+        <f>N2*1.105</f>
         <v>2.2674756562442959</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>46</v>
       </c>
@@ -3970,32 +3979,33 @@
       <c r="D3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="14"/>
+      <c r="H3" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>16</v>
       </c>
@@ -4009,37 +4019,38 @@
         <f>B4*C4</f>
         <v>50</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="14"/>
+      <c r="G4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="27">
+      <c r="H4" s="27">
         <v>20</v>
       </c>
-      <c r="H4" s="27">
+      <c r="I4" s="27">
         <v>40</v>
       </c>
-      <c r="I4" s="27">
+      <c r="J4" s="27">
         <v>80</v>
       </c>
-      <c r="J4" s="27">
+      <c r="K4" s="27">
         <v>120</v>
       </c>
-      <c r="K4" s="27">
+      <c r="L4" s="27">
         <v>160</v>
       </c>
-      <c r="L4" s="27"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
-      <c r="Q4">
-        <f>SUM(G4:K4)*B5</f>
+      <c r="O4" s="27"/>
+      <c r="R4">
+        <f>SUM(H4:L4)*B5</f>
         <v>4200</v>
       </c>
-      <c r="R4">
-        <f>SUM(G4:K4)/G4</f>
+      <c r="S4">
+        <f>SUM(H4:L4)/H4</f>
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>273</v>
       </c>
@@ -4053,33 +4064,34 @@
         <f>B5*C5</f>
         <v>200</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="E5" s="14"/>
+      <c r="G5" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27">
+      <c r="H5" s="27"/>
+      <c r="I5" s="27">
         <v>40</v>
       </c>
-      <c r="I5" s="27">
+      <c r="J5" s="27">
         <v>80</v>
       </c>
-      <c r="J5" s="27">
+      <c r="K5" s="27">
         <v>120</v>
       </c>
-      <c r="K5" s="27">
+      <c r="L5" s="27">
         <v>160</v>
       </c>
-      <c r="L5" s="27">
+      <c r="M5" s="27">
         <v>240</v>
       </c>
-      <c r="M5" s="27"/>
       <c r="N5" s="27"/>
-      <c r="Q5">
-        <f>SUM(H5:L5)*B6</f>
+      <c r="O5" s="27"/>
+      <c r="R5">
+        <f>SUM(I5:M5)*B6</f>
         <v>9600</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>49</v>
       </c>
@@ -4093,33 +4105,34 @@
         <f>B6*C6</f>
         <v>600</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="E6" s="14"/>
+      <c r="G6" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="G6" s="27"/>
       <c r="H6" s="27"/>
-      <c r="I6" s="27">
-        <v>80</v>
-      </c>
+      <c r="I6" s="27"/>
       <c r="J6" s="27">
         <v>80</v>
       </c>
       <c r="K6" s="27">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="L6" s="27">
         <v>160</v>
       </c>
       <c r="M6" s="27">
+        <v>160</v>
+      </c>
+      <c r="N6" s="27">
         <v>240</v>
       </c>
-      <c r="N6" s="27"/>
-      <c r="Q6">
-        <f>SUM(I6:M6)*B7</f>
+      <c r="O6" s="27"/>
+      <c r="R6">
+        <f>SUM(J6:N6)*B7</f>
         <v>25200</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>257</v>
       </c>
@@ -4133,33 +4146,34 @@
         <f>B7*C7</f>
         <v>2800</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="E7" s="14"/>
+      <c r="G7" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="27">
-        <v>80</v>
-      </c>
+      <c r="J7" s="27"/>
       <c r="K7" s="27">
         <v>80</v>
       </c>
       <c r="L7" s="27">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="M7" s="27">
         <v>160</v>
       </c>
       <c r="N7" s="27">
+        <v>160</v>
+      </c>
+      <c r="O7" s="27">
         <v>240</v>
       </c>
-      <c r="Q7">
-        <f>SUM(J7:N7)*B8</f>
+      <c r="R7">
+        <f>SUM(K7:O7)*B8</f>
         <v>72000</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>58</v>
       </c>
@@ -4173,9 +4187,12 @@
         <f>B8*C8</f>
         <v>8000</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E11" s="20"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E9" s="14"/>
+    </row>
+    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
@@ -4185,25 +4202,26 @@
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27">
+      <c r="O11" s="20"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27">
         <v>27</v>
       </c>
-      <c r="S11" s="27">
+      <c r="T11" s="27">
         <v>2</v>
       </c>
-      <c r="T11" s="27">
+      <c r="U11" s="27">
         <v>1</v>
       </c>
-      <c r="U11" s="28" t="s">
+      <c r="V11" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="V11" s="13">
-        <f>SUMPRODUCT(U13:U17,Q13:Q17)/30</f>
+      <c r="W11" s="13">
+        <f>SUMPRODUCT(V13:V17,R13:R17)/30</f>
         <v>279.01000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>75</v>
       </c>
@@ -4213,39 +4231,42 @@
       <c r="C12" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="51" t="s">
+      <c r="D12" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="Q12" s="12" t="s">
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="R12" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="S12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="12" t="s">
+      <c r="T12" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="T12" s="12" t="s">
+      <c r="U12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="U12" s="12" t="s">
+      <c r="V12" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="V12" s="16" t="s">
+      <c r="W12" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>324</v>
       </c>
@@ -4253,44 +4274,42 @@
         <v>42</v>
       </c>
       <c r="C13" s="27">
-        <f t="shared" ref="C13:C33" si="0">MATCH(B13,$F$4:$F$7)+1</f>
+        <f t="shared" ref="C13:C33" si="0">MATCH(B13,$G$4:$G$7)+1</f>
         <v>2</v>
       </c>
-      <c r="D13" s="14">
-        <f>MATCH(B13,$A$4:$A$8,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="P13" s="27" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="Q13" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="R13" s="27">
         <v>27</v>
       </c>
-      <c r="R13" s="27">
+      <c r="S13" s="27">
         <v>0.7</v>
       </c>
-      <c r="S13" s="27"/>
       <c r="T13" s="27"/>
-      <c r="U13" s="27">
-        <f>SUMPRODUCT(R$11:T$11,R13:T13)</f>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27">
+        <f>SUMPRODUCT(S$11:U$11,S13:U13)</f>
         <v>18.899999999999999</v>
       </c>
-      <c r="V13" s="15">
-        <f>U13/30</f>
+      <c r="W13" s="15">
+        <f>V13/30</f>
         <v>0.63</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>325</v>
       </c>
@@ -4301,41 +4320,39 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D14" s="14">
-        <f>MATCH(B14,$A$4:$A$8,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="P14" s="27" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="Q14" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="Q14" s="27">
+      <c r="R14" s="27">
         <v>200</v>
       </c>
-      <c r="R14" s="27">
+      <c r="S14" s="27">
         <v>0.25</v>
       </c>
-      <c r="S14" s="27"/>
       <c r="T14" s="27"/>
-      <c r="U14" s="27">
-        <f>SUMPRODUCT(R$11:T$11,R14:T14)</f>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27">
+        <f>SUMPRODUCT(S$11:U$11,S14:U14)</f>
         <v>6.75</v>
       </c>
-      <c r="V14" s="15">
-        <f>U14/30</f>
+      <c r="W14" s="15">
+        <f>V14/30</f>
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>330</v>
       </c>
@@ -4346,43 +4363,41 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D15" s="14">
-        <f>MATCH(B15,$A$4:$A$8,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="P15" s="27" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="Q15" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="Q15" s="27">
+      <c r="R15" s="27">
         <v>600</v>
       </c>
-      <c r="R15" s="27">
+      <c r="S15" s="27">
         <v>0.05</v>
       </c>
-      <c r="S15" s="27">
+      <c r="T15" s="27">
         <v>0.85</v>
       </c>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27">
-        <f>SUMPRODUCT(R$11:T$11,R15:T15)</f>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27">
+        <f>SUMPRODUCT(S$11:U$11,S15:U15)</f>
         <v>3.05</v>
       </c>
-      <c r="V15" s="15">
-        <f>U15/30</f>
+      <c r="W15" s="15">
+        <f>V15/30</f>
         <v>0.10166666666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>331</v>
       </c>
@@ -4393,45 +4408,43 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D16" s="14">
-        <f>MATCH(B16,$A$4:$A$8,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="P16" s="27" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="Q16" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="Q16" s="27">
+      <c r="R16" s="27">
         <v>2800</v>
       </c>
-      <c r="R16" s="27">
+      <c r="S16" s="27">
         <v>0</v>
       </c>
-      <c r="S16" s="27">
+      <c r="T16" s="27">
         <v>0.15</v>
       </c>
-      <c r="T16" s="27">
+      <c r="U16" s="27">
         <v>0.8</v>
       </c>
-      <c r="U16" s="27">
-        <f>SUMPRODUCT(R$11:T$11,R16:T16)</f>
+      <c r="V16" s="27">
+        <f>SUMPRODUCT(S$11:U$11,S16:U16)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="V16" s="15">
-        <f>U16/30</f>
+      <c r="W16" s="15">
+        <f>V16/30</f>
         <v>3.6666666666666667E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>336</v>
       </c>
@@ -4442,43 +4455,41 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D17" s="14">
-        <f>MATCH(B24,$A$4:$A$8,0)</f>
-        <v>4</v>
-      </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="P17" s="27" t="s">
+      <c r="D17" s="30"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="Q17" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="Q17" s="27">
+      <c r="R17" s="27">
         <v>8000</v>
       </c>
-      <c r="R17" s="27">
+      <c r="S17" s="27">
         <v>0</v>
       </c>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27">
+      <c r="T17" s="27"/>
+      <c r="U17" s="27">
         <v>0.2</v>
       </c>
-      <c r="U17" s="27">
-        <f>SUMPRODUCT(R$11:T$11,R17:T17)</f>
+      <c r="V17" s="27">
+        <f>SUMPRODUCT(S$11:U$11,S17:U17)</f>
         <v>0.2</v>
       </c>
-      <c r="V17" s="15">
-        <f>U17/30</f>
+      <c r="W17" s="15">
+        <f>V17/30</f>
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>341</v>
       </c>
@@ -4489,22 +4500,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D18" s="14">
-        <f>MATCH(B33,$A$4:$A$8,0)</f>
-        <v>5</v>
-      </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-    </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D18" s="30"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+    </row>
+    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>326</v>
       </c>
@@ -4515,22 +4524,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D19" s="14">
-        <f>MATCH(B19,$A$4:$A$8,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-    </row>
-    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D19" s="30"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+    </row>
+    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>327</v>
       </c>
@@ -4541,22 +4548,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D20" s="14">
-        <f>MATCH(B20,$A$4:$A$8,0)</f>
-        <v>2</v>
-      </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-    </row>
-    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D20" s="30"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+    </row>
+    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>332</v>
       </c>
@@ -4567,22 +4572,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D21" s="14">
-        <f>MATCH(B21,$A$4:$A$8,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-    </row>
-    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D21" s="30"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+    </row>
+    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>333</v>
       </c>
@@ -4593,22 +4596,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D22" s="14">
-        <f>MATCH(B22,$A$4:$A$8,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-    </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D22" s="30"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+    </row>
+    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>337</v>
       </c>
@@ -4619,22 +4620,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D23" s="14">
-        <f>MATCH(B23,$A$4:$A$8,0)</f>
-        <v>4</v>
-      </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-    </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D23" s="30"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+    </row>
+    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>338</v>
       </c>
@@ -4645,22 +4644,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D24" s="14">
-        <f>MATCH(B17,$A$4:$A$8,0)</f>
-        <v>4</v>
-      </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-    </row>
-    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D24" s="30"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+    </row>
+    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>342</v>
       </c>
@@ -4671,22 +4668,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D25" s="14">
-        <f t="shared" ref="D25:D32" si="1">MATCH(B25,$A$4:$A$8,0)</f>
-        <v>5</v>
-      </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-    </row>
-    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D25" s="30"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+    </row>
+    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>328</v>
       </c>
@@ -4697,22 +4692,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D26" s="14">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-    </row>
-    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D26" s="30"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+    </row>
+    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>329</v>
       </c>
@@ -4723,22 +4716,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D27" s="14">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-    </row>
-    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D27" s="30"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+    </row>
+    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>334</v>
       </c>
@@ -4749,22 +4740,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D28" s="14">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-    </row>
-    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D28" s="30"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+    </row>
+    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>335</v>
       </c>
@@ -4775,22 +4764,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D29" s="14">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-    </row>
-    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D29" s="30"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+    </row>
+    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
         <v>85</v>
       </c>
@@ -4801,22 +4788,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D30" s="14">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-    </row>
-    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D30" s="30"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+    </row>
+    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>339</v>
       </c>
@@ -4827,22 +4812,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D31" s="14">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-    </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D31" s="30"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+    </row>
+    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>340</v>
       </c>
@@ -4853,22 +4836,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D32" s="14">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-    </row>
-    <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D32" s="30"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+    </row>
+    <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
         <v>343</v>
       </c>
@@ -4879,22 +4860,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D33" s="14">
-        <f>MATCH(B18,$A$4:$A$8,0)</f>
-        <v>5</v>
-      </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-    </row>
-    <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D33" s="30"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+    </row>
+    <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
         <v>63</v>
       </c>
@@ -4902,20 +4881,20 @@
         <v>650</v>
       </c>
       <c r="C36" s="27"/>
-      <c r="E36" s="51" t="s">
+      <c r="F36" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-    </row>
-    <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+    </row>
+    <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
         <v>64</v>
       </c>
@@ -4923,18 +4902,18 @@
         <v>650</v>
       </c>
       <c r="C37" s="27"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-    </row>
-    <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+    </row>
+    <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
         <v>66</v>
       </c>
@@ -4942,18 +4921,18 @@
         <v>650</v>
       </c>
       <c r="C38" s="27"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-    </row>
-    <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+    </row>
+    <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
         <v>67</v>
       </c>
@@ -4961,18 +4940,18 @@
         <v>650</v>
       </c>
       <c r="C39" s="27"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-    </row>
-    <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+    </row>
+    <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="27" t="s">
         <v>68</v>
       </c>
@@ -4980,18 +4959,18 @@
         <v>750</v>
       </c>
       <c r="C40" s="27"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-    </row>
-    <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+    </row>
+    <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="27" t="s">
         <v>69</v>
       </c>
@@ -4999,18 +4978,18 @@
         <v>650</v>
       </c>
       <c r="C41" s="27"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-    </row>
-    <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+    </row>
+    <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="27" t="s">
         <v>65</v>
       </c>
@@ -5018,18 +4997,18 @@
         <v>285</v>
       </c>
       <c r="C42" s="27"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-    </row>
-    <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+    </row>
+    <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
         <v>270</v>
       </c>
@@ -5037,18 +5016,18 @@
         <v>285</v>
       </c>
       <c r="C43" s="27"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-    </row>
-    <row r="44" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+    </row>
+    <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
         <v>70</v>
       </c>
@@ -5056,18 +5035,18 @@
         <v>285</v>
       </c>
       <c r="C44" s="27"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-    </row>
-    <row r="45" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+    </row>
+    <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="27" t="s">
         <v>73</v>
       </c>
@@ -5075,18 +5054,18 @@
         <v>285</v>
       </c>
       <c r="C45" s="27"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-    </row>
-    <row r="46" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+    </row>
+    <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
         <v>71</v>
       </c>
@@ -5094,18 +5073,18 @@
         <v>285</v>
       </c>
       <c r="C46" s="27"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="51"/>
-    </row>
-    <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+    </row>
+    <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
         <v>72</v>
       </c>
@@ -5113,18 +5092,18 @@
         <v>290</v>
       </c>
       <c r="C47" s="27"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="51"/>
-    </row>
-    <row r="48" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+    </row>
+    <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
         <v>74</v>
       </c>
@@ -5132,18 +5111,18 @@
         <v>285</v>
       </c>
       <c r="C48" s="27"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-    </row>
-    <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+    </row>
+    <row r="49" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="27" t="s">
         <v>269</v>
       </c>
@@ -5151,18 +5130,18 @@
         <v>200</v>
       </c>
       <c r="C49" s="27"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="51"/>
-    </row>
-    <row r="50" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="52"/>
+    </row>
+    <row r="50" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="27" t="s">
         <v>268</v>
       </c>
@@ -5170,18 +5149,18 @@
         <v>200</v>
       </c>
       <c r="C50" s="27"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="51"/>
-      <c r="N50" s="51"/>
-    </row>
-    <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="52"/>
+    </row>
+    <row r="51" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="27" t="s">
         <v>267</v>
       </c>
@@ -5189,18 +5168,18 @@
         <v>200</v>
       </c>
       <c r="C51" s="27"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="51"/>
-      <c r="N51" s="51"/>
-    </row>
-    <row r="52" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+    </row>
+    <row r="52" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="27" t="s">
         <v>266</v>
       </c>
@@ -5208,18 +5187,18 @@
         <v>200</v>
       </c>
       <c r="C52" s="27"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="51"/>
-    </row>
-    <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+    </row>
+    <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
         <v>78</v>
       </c>
@@ -5227,23 +5206,23 @@
         <v>200</v>
       </c>
       <c r="C53" s="27"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="51"/>
-      <c r="N53" s="51"/>
-    </row>
-    <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+    </row>
+    <row r="54" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
     </row>
-    <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="27" t="s">
         <v>30</v>
       </c>
@@ -5251,14 +5230,14 @@
         <v>417</v>
       </c>
       <c r="C55" s="27"/>
-      <c r="E55" s="27" t="s">
+      <c r="F55" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F55" s="27">
+      <c r="G55" s="27">
         <v>650</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="27" t="s">
         <v>40</v>
       </c>
@@ -5266,14 +5245,14 @@
         <v>417</v>
       </c>
       <c r="C56" s="27"/>
-      <c r="E56" s="27" t="s">
+      <c r="F56" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="F56" s="27">
+      <c r="G56" s="27">
         <v>650</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="27" t="s">
         <v>32</v>
       </c>
@@ -5281,14 +5260,14 @@
         <v>415</v>
       </c>
       <c r="C57" s="27"/>
-      <c r="E57" s="27" t="s">
+      <c r="F57" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F57" s="27">
+      <c r="G57" s="27">
         <v>650</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="27" t="s">
         <v>34</v>
       </c>
@@ -5296,14 +5275,14 @@
         <v>417</v>
       </c>
       <c r="C58" s="27"/>
-      <c r="E58" s="27" t="s">
+      <c r="F58" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="F58" s="27">
+      <c r="G58" s="27">
         <v>650</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="27" t="s">
         <v>22</v>
       </c>
@@ -5311,14 +5290,14 @@
         <v>417</v>
       </c>
       <c r="C59" s="27"/>
-      <c r="E59" s="27" t="s">
+      <c r="F59" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F59" s="27">
+      <c r="G59" s="27">
         <v>750</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="27" t="s">
         <v>35</v>
       </c>
@@ -5326,14 +5305,14 @@
         <v>417</v>
       </c>
       <c r="C60" s="27"/>
-      <c r="E60" s="27" t="s">
+      <c r="F60" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F60" s="27">
+      <c r="G60" s="27">
         <v>650</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="27" t="s">
         <v>23</v>
       </c>
@@ -5341,14 +5320,14 @@
         <v>80</v>
       </c>
       <c r="C61" s="27"/>
-      <c r="E61" s="27" t="s">
+      <c r="F61" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="F61" s="27">
+      <c r="G61" s="27">
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="27" t="s">
         <v>77</v>
       </c>
@@ -5356,14 +5335,14 @@
         <v>80</v>
       </c>
       <c r="C62" s="27"/>
-      <c r="E62" s="27" t="s">
+      <c r="F62" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F62" s="27">
+      <c r="G62" s="27">
         <v>285</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="27" t="s">
         <v>36</v>
       </c>
@@ -5371,14 +5350,14 @@
         <v>80</v>
       </c>
       <c r="C63" s="27"/>
-      <c r="E63" s="27" t="s">
+      <c r="F63" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F63" s="27">
+      <c r="G63" s="27">
         <v>285</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="27" t="s">
         <v>263</v>
       </c>
@@ -5386,14 +5365,14 @@
         <v>80</v>
       </c>
       <c r="C64" s="27"/>
-      <c r="E64" s="27" t="s">
+      <c r="F64" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="27">
+      <c r="G64" s="27">
         <v>285</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="27" t="s">
         <v>37</v>
       </c>
@@ -5401,14 +5380,14 @@
         <v>100</v>
       </c>
       <c r="C65" s="27"/>
-      <c r="E65" s="27" t="s">
+      <c r="F65" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F65" s="27">
+      <c r="G65" s="27">
         <v>285</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="27" t="s">
         <v>20</v>
       </c>
@@ -5416,22 +5395,22 @@
         <v>80</v>
       </c>
       <c r="C66" s="27"/>
-      <c r="E66" s="27" t="s">
+      <c r="F66" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="F66" s="27">
+      <c r="G66" s="27">
         <v>290</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E67" s="27" t="s">
+    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F67" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F67" s="27">
+      <c r="G67" s="27">
         <v>285</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="27" t="s">
         <v>23</v>
       </c>
@@ -5439,14 +5418,14 @@
         <v>1212</v>
       </c>
       <c r="C68" s="27"/>
-      <c r="E68" s="27" t="s">
+      <c r="F68" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="F68" s="27">
+      <c r="G68" s="27">
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="27" t="s">
         <v>76</v>
       </c>
@@ -5454,14 +5433,14 @@
         <v>1212</v>
       </c>
       <c r="C69" s="27"/>
-      <c r="E69" s="27" t="s">
+      <c r="F69" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="F69" s="27">
+      <c r="G69" s="27">
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="27" t="s">
         <v>36</v>
       </c>
@@ -5469,14 +5448,14 @@
         <v>1212</v>
       </c>
       <c r="C70" s="27"/>
-      <c r="E70" s="27" t="s">
+      <c r="F70" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="F70" s="27">
+      <c r="G70" s="27">
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="27" t="s">
         <v>26</v>
       </c>
@@ -5484,14 +5463,14 @@
         <v>1212</v>
       </c>
       <c r="C71" s="27"/>
-      <c r="E71" s="27" t="s">
+      <c r="F71" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F71" s="27">
+      <c r="G71" s="27">
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="27" t="s">
         <v>20</v>
       </c>
@@ -5499,14 +5478,14 @@
         <v>1212</v>
       </c>
       <c r="C72" s="27"/>
-      <c r="E72" s="27" t="s">
+      <c r="F72" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F72" s="27">
+      <c r="G72" s="27">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="27" t="s">
         <v>37</v>
       </c>
@@ -5514,14 +5493,14 @@
         <v>1228</v>
       </c>
       <c r="C73" s="27"/>
-      <c r="E73" s="27" t="s">
+      <c r="F73" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F73" s="27">
+      <c r="G73" s="27">
         <v>500</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="27" t="s">
         <v>31</v>
       </c>
@@ -5529,14 +5508,14 @@
         <v>1212</v>
       </c>
       <c r="C74" s="27"/>
-      <c r="E74" s="27" t="s">
+      <c r="F74" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F74" s="27">
+      <c r="G74" s="27">
         <v>500</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="27" t="s">
         <v>28</v>
       </c>
@@ -5544,14 +5523,14 @@
         <v>300</v>
       </c>
       <c r="C75" s="27"/>
-      <c r="E75" s="27" t="s">
+      <c r="F75" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F75" s="27">
+      <c r="G75" s="27">
         <v>500</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="27" t="s">
         <v>21</v>
       </c>
@@ -5559,14 +5538,14 @@
         <v>300</v>
       </c>
       <c r="C76" s="27"/>
-      <c r="E76" s="27" t="s">
+      <c r="F76" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F76" s="27">
+      <c r="G76" s="27">
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="27" t="s">
         <v>33</v>
       </c>
@@ -5574,14 +5553,14 @@
         <v>300</v>
       </c>
       <c r="C77" s="27"/>
-      <c r="E77" s="27" t="s">
+      <c r="F77" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="27">
+      <c r="G77" s="27">
         <v>500</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="27" t="s">
         <v>25</v>
       </c>
@@ -5589,14 +5568,14 @@
         <v>300</v>
       </c>
       <c r="C78" s="27"/>
-      <c r="E78" s="27" t="s">
+      <c r="F78" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F78" s="27">
+      <c r="G78" s="27">
         <v>500</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="27" t="s">
         <v>27</v>
       </c>
@@ -5605,15 +5584,15 @@
       </c>
       <c r="C79" s="27"/>
     </row>
-    <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E81" s="27" t="s">
+    <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F81" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F81" s="27">
+      <c r="G81" s="27">
         <v>1350</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="27" t="s">
         <v>28</v>
       </c>
@@ -5621,14 +5600,14 @@
         <v>1700</v>
       </c>
       <c r="C82" s="27"/>
-      <c r="E82" s="27" t="s">
+      <c r="F82" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="F82" s="27">
+      <c r="G82" s="27">
         <v>1350</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="27" t="s">
         <v>21</v>
       </c>
@@ -5636,14 +5615,14 @@
         <v>1700</v>
       </c>
       <c r="C83" s="27"/>
-      <c r="E83" s="27" t="s">
+      <c r="F83" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F83" s="27">
+      <c r="G83" s="27">
         <v>1350</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="27" t="s">
         <v>33</v>
       </c>
@@ -5651,14 +5630,14 @@
         <v>1700</v>
       </c>
       <c r="C84" s="27"/>
-      <c r="E84" s="27" t="s">
+      <c r="F84" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F84" s="27">
+      <c r="G84" s="27">
         <v>1350</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="27" t="s">
         <v>25</v>
       </c>
@@ -5666,14 +5645,14 @@
         <v>1700</v>
       </c>
       <c r="C85" s="27"/>
-      <c r="E85" s="27" t="s">
+      <c r="F85" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F85" s="27">
+      <c r="G85" s="27">
         <v>1350</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="27" t="s">
         <v>27</v>
       </c>
@@ -5681,14 +5660,14 @@
         <v>1700</v>
       </c>
       <c r="C86" s="27"/>
-      <c r="E86" s="27" t="s">
+      <c r="F86" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F86" s="27">
+      <c r="G86" s="27">
         <v>1350</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="27" t="s">
         <v>19</v>
       </c>
@@ -5696,14 +5675,14 @@
         <v>500</v>
       </c>
       <c r="C87" s="27"/>
-      <c r="E87" s="27" t="s">
+      <c r="F87" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="F87" s="27">
+      <c r="G87" s="27">
         <v>315</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="27" t="s">
         <v>24</v>
       </c>
@@ -5711,14 +5690,14 @@
         <v>500</v>
       </c>
       <c r="C88" s="27"/>
-      <c r="E88" s="27" t="s">
+      <c r="F88" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F88" s="27">
+      <c r="G88" s="27">
         <v>315</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="27" t="s">
         <v>29</v>
       </c>
@@ -5726,50 +5705,50 @@
         <v>500</v>
       </c>
       <c r="C89" s="27"/>
-      <c r="E89" s="27" t="s">
+      <c r="F89" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="F89" s="27">
+      <c r="G89" s="27">
         <v>315</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
-      <c r="E90" s="27" t="s">
+      <c r="F90" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F90" s="27">
+      <c r="G90" s="27">
         <v>315</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
-      <c r="E91" s="27" t="s">
+      <c r="F91" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F91" s="27">
+      <c r="G91" s="27">
         <v>325</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E92" s="27" t="s">
+    <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="F92" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="F92" s="27">
+      <c r="G92" s="27">
         <v>315</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D95">
         <f>SUM(D97:D117)</f>
         <v>405.11904761904759</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>261</v>
       </c>
@@ -5797,15 +5776,15 @@
         <v>42</v>
       </c>
       <c r="C97" s="27">
-        <f t="shared" ref="C97:C117" si="2">INDEX($D$4:$D$8,MATCH(B97,$A$4:$A$8,0))</f>
+        <f t="shared" ref="C97:C117" si="1">INDEX($D$4:$D$8,MATCH(B97,$A$4:$A$8,0))</f>
         <v>200</v>
       </c>
       <c r="D97" s="27">
-        <f t="shared" ref="D97:D117" si="3">10000/C97</f>
+        <f t="shared" ref="D97:D117" si="2">10000/C97</f>
         <v>50</v>
       </c>
       <c r="E97" s="27">
-        <f t="shared" ref="E97:E117" si="4">ROUND(D97/D$95*10000,0)</f>
+        <f>ROUND(D97/D$95*10000,0)</f>
         <v>1234</v>
       </c>
       <c r="F97" s="27">
@@ -5820,15 +5799,15 @@
         <v>42</v>
       </c>
       <c r="C98" s="27">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="D98" s="27">
         <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="D98" s="27">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="E98" s="27">
-        <f t="shared" si="4"/>
+        <f>ROUND(D98/D$95*10000,0)</f>
         <v>1234</v>
       </c>
       <c r="F98" s="27">
@@ -5843,15 +5822,15 @@
         <v>43</v>
       </c>
       <c r="C99" s="27">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="D99" s="27">
         <f t="shared" si="2"/>
-        <v>600</v>
-      </c>
-      <c r="D99" s="27">
-        <f t="shared" si="3"/>
         <v>16.666666666666668</v>
       </c>
       <c r="E99" s="27">
-        <f t="shared" si="4"/>
+        <f>ROUND(D99/D$95*10000,0)</f>
         <v>411</v>
       </c>
       <c r="F99" s="27">
@@ -5866,15 +5845,15 @@
         <v>257</v>
       </c>
       <c r="C100" s="27">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="D100" s="27">
         <f t="shared" si="2"/>
-        <v>2800</v>
-      </c>
-      <c r="D100" s="27">
-        <f t="shared" si="3"/>
         <v>3.5714285714285716</v>
       </c>
       <c r="E100" s="27">
-        <f t="shared" si="4"/>
+        <f>ROUND(D100/D$95*10000,0)</f>
         <v>88</v>
       </c>
       <c r="F100" s="27">
@@ -5889,15 +5868,15 @@
         <v>45</v>
       </c>
       <c r="C101" s="27">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="D101" s="27">
         <f t="shared" si="2"/>
-        <v>8000</v>
-      </c>
-      <c r="D101" s="27">
-        <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
       <c r="E101" s="27">
-        <f t="shared" si="4"/>
+        <f>ROUND(D101/D$95*10000,0)</f>
         <v>31</v>
       </c>
       <c r="F101" s="27">
@@ -5912,15 +5891,15 @@
         <v>45</v>
       </c>
       <c r="C102" s="27">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="D102" s="27">
         <f t="shared" si="2"/>
-        <v>8000</v>
-      </c>
-      <c r="D102" s="27">
-        <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
       <c r="E102" s="27">
-        <f t="shared" si="4"/>
+        <f>ROUND(D102/D$95*10000,0)</f>
         <v>31</v>
       </c>
       <c r="F102" s="27">
@@ -5935,15 +5914,15 @@
         <v>42</v>
       </c>
       <c r="C103" s="27">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="D103" s="27">
         <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="D103" s="27">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="E103" s="27">
-        <f t="shared" si="4"/>
+        <f>ROUND(D103/D$95*10000,0)</f>
         <v>1234</v>
       </c>
       <c r="F103" s="27">
@@ -5958,15 +5937,15 @@
         <v>42</v>
       </c>
       <c r="C104" s="27">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="D104" s="27">
         <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="D104" s="27">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="E104" s="27">
-        <f t="shared" si="4"/>
+        <f>ROUND(D104/D$95*10000,0)</f>
         <v>1234</v>
       </c>
       <c r="F104" s="27">
@@ -5981,15 +5960,15 @@
         <v>43</v>
       </c>
       <c r="C105" s="27">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="D105" s="27">
         <f t="shared" si="2"/>
-        <v>600</v>
-      </c>
-      <c r="D105" s="27">
-        <f t="shared" si="3"/>
         <v>16.666666666666668</v>
       </c>
       <c r="E105" s="27">
-        <f t="shared" si="4"/>
+        <f>ROUND(D105/D$95*10000,0)</f>
         <v>411</v>
       </c>
       <c r="F105" s="27">
@@ -6004,15 +5983,15 @@
         <v>43</v>
       </c>
       <c r="C106" s="27">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="D106" s="27">
         <f t="shared" si="2"/>
-        <v>600</v>
-      </c>
-      <c r="D106" s="27">
-        <f t="shared" si="3"/>
         <v>16.666666666666668</v>
       </c>
       <c r="E106" s="27">
-        <f t="shared" si="4"/>
+        <f>ROUND(D106/D$95*10000,0)</f>
         <v>411</v>
       </c>
       <c r="F106" s="27">
@@ -6027,15 +6006,15 @@
         <v>257</v>
       </c>
       <c r="C107" s="27">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="D107" s="27">
         <f t="shared" si="2"/>
-        <v>2800</v>
-      </c>
-      <c r="D107" s="27">
-        <f t="shared" si="3"/>
         <v>3.5714285714285716</v>
       </c>
       <c r="E107" s="27">
-        <f t="shared" si="4"/>
+        <f>ROUND(D107/D$95*10000,0)</f>
         <v>88</v>
       </c>
       <c r="F107" s="27">
@@ -6050,15 +6029,15 @@
         <v>45</v>
       </c>
       <c r="C108" s="27">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="D108" s="27">
         <f t="shared" si="2"/>
-        <v>8000</v>
-      </c>
-      <c r="D108" s="27">
-        <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
       <c r="E108" s="27">
-        <f t="shared" si="4"/>
+        <f>ROUND(D108/D$95*10000,0)</f>
         <v>31</v>
       </c>
       <c r="F108" s="27">
@@ -6073,15 +6052,15 @@
         <v>45</v>
       </c>
       <c r="C109" s="27">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="D109" s="27">
         <f t="shared" si="2"/>
-        <v>8000</v>
-      </c>
-      <c r="D109" s="27">
-        <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
       <c r="E109" s="27">
-        <f t="shared" si="4"/>
+        <f>ROUND(D109/D$95*10000,0)</f>
         <v>31</v>
       </c>
       <c r="F109" s="27">
@@ -6096,15 +6075,15 @@
         <v>42</v>
       </c>
       <c r="C110" s="27">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="D110" s="27">
         <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="D110" s="27">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="E110" s="27">
-        <f t="shared" si="4"/>
+        <f>ROUND(D110/D$95*10000,0)</f>
         <v>1234</v>
       </c>
       <c r="F110" s="27">
@@ -6119,15 +6098,15 @@
         <v>42</v>
       </c>
       <c r="C111" s="27">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="D111" s="27">
         <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="D111" s="27">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="E111" s="27">
-        <f t="shared" si="4"/>
+        <f>ROUND(D111/D$95*10000,0)</f>
         <v>1234</v>
       </c>
       <c r="F111" s="27">
@@ -6142,15 +6121,15 @@
         <v>43</v>
       </c>
       <c r="C112" s="27">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="D112" s="27">
         <f t="shared" si="2"/>
-        <v>600</v>
-      </c>
-      <c r="D112" s="27">
-        <f t="shared" si="3"/>
         <v>16.666666666666668</v>
       </c>
       <c r="E112" s="27">
-        <f t="shared" si="4"/>
+        <f>ROUND(D112/D$95*10000,0)</f>
         <v>411</v>
       </c>
       <c r="F112" s="27">
@@ -6165,15 +6144,15 @@
         <v>43</v>
       </c>
       <c r="C113" s="27">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="D113" s="27">
         <f t="shared" si="2"/>
-        <v>600</v>
-      </c>
-      <c r="D113" s="27">
-        <f t="shared" si="3"/>
         <v>16.666666666666668</v>
       </c>
       <c r="E113" s="27">
-        <f t="shared" si="4"/>
+        <f>ROUND(D113/D$95*10000,0)</f>
         <v>411</v>
       </c>
       <c r="F113" s="27">
@@ -6188,15 +6167,15 @@
         <v>257</v>
       </c>
       <c r="C114" s="27">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="D114" s="27">
         <f t="shared" si="2"/>
-        <v>2800</v>
-      </c>
-      <c r="D114" s="27">
-        <f t="shared" si="3"/>
         <v>3.5714285714285716</v>
       </c>
       <c r="E114" s="27">
-        <f t="shared" si="4"/>
+        <f>ROUND(D114/D$95*10000,0)</f>
         <v>88</v>
       </c>
       <c r="F114" s="27">
@@ -6211,15 +6190,15 @@
         <v>44</v>
       </c>
       <c r="C115" s="27">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="D115" s="27">
         <f t="shared" si="2"/>
-        <v>2800</v>
-      </c>
-      <c r="D115" s="27">
-        <f t="shared" si="3"/>
         <v>3.5714285714285716</v>
       </c>
       <c r="E115" s="27">
-        <f t="shared" si="4"/>
+        <f>ROUND(D115/D$95*10000,0)</f>
         <v>88</v>
       </c>
       <c r="F115" s="27">
@@ -6234,15 +6213,15 @@
         <v>45</v>
       </c>
       <c r="C116" s="27">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="D116" s="27">
         <f t="shared" si="2"/>
-        <v>8000</v>
-      </c>
-      <c r="D116" s="27">
-        <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
       <c r="E116" s="27">
-        <f t="shared" si="4"/>
+        <f>ROUND(D116/D$95*10000,0)</f>
         <v>31</v>
       </c>
       <c r="F116" s="27">
@@ -6257,15 +6236,15 @@
         <v>45</v>
       </c>
       <c r="C117" s="27">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="D117" s="27">
         <f t="shared" si="2"/>
-        <v>8000</v>
-      </c>
-      <c r="D117" s="27">
-        <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
       <c r="E117" s="27">
-        <f t="shared" si="4"/>
+        <f>ROUND(D117/D$95*10000,0)</f>
         <v>31</v>
       </c>
       <c r="F117" s="27">
@@ -6274,8 +6253,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E12:N33"/>
-    <mergeCell ref="E36:N53"/>
+    <mergeCell ref="F12:O33"/>
+    <mergeCell ref="F36:O53"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6286,8 +6265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
